--- a/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A876F7F-1BBF-4365-A1AB-EC22F3842779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE13FAC3-E1AC-4AA8-9E99-2F05396ADF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{089DC36A-CD79-41E2-9FF8-4C2CFF2E4536}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B592185-FBD9-4BBA-83A2-EE4720EFF319}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="439">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,1300 +71,1285 @@
     <t>34,73%</t>
   </si>
   <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>45,64%</t>
   </si>
   <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
   </si>
   <si>
     <t>28,83%</t>
   </si>
   <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
     <t>15,3%</t>
   </si>
   <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
   </si>
   <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
     <t>0,11%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
     <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1779,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD66B945-C8D9-41EA-BA46-EDD8B94CAAC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261ECD65-43EC-4103-BA29-C342534E24ED}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2532,13 +2517,13 @@
         <v>110715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -2547,13 +2532,13 @@
         <v>247054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2553,13 @@
         <v>99920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -2583,13 +2568,13 @@
         <v>99313</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
@@ -2598,13 +2583,13 @@
         <v>199233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2619,13 +2604,13 @@
         <v>75967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>91</v>
@@ -2634,13 +2619,13 @@
         <v>90224</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -2649,13 +2634,13 @@
         <v>166191</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2655,13 @@
         <v>31696</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2685,13 +2670,13 @@
         <v>15010</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -2700,13 +2685,13 @@
         <v>46706</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2706,13 @@
         <v>6599</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2736,13 +2721,13 @@
         <v>3892</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2751,13 +2736,13 @@
         <v>10492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2757,13 @@
         <v>1474</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2787,13 +2772,13 @@
         <v>4325</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2802,13 +2787,13 @@
         <v>5799</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,7 +2814,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2844,7 +2829,7 @@
         <v>47</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2859,7 +2844,7 @@
         <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,7 +2865,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2889,7 +2874,7 @@
         <v>1939</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>46</v>
@@ -2931,7 +2916,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2946,7 +2931,7 @@
         <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2961,7 +2946,7 @@
         <v>47</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,7 +2967,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2997,7 +2982,7 @@
         <v>47</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3012,7 +2997,7 @@
         <v>47</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,7 +3033,7 @@
         <v>47</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3233,13 +3218,13 @@
         <v>114559</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>186</v>
@@ -3248,13 +3233,13 @@
         <v>121011</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>301</v>
@@ -3263,13 +3248,13 @@
         <v>235570</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3269,13 @@
         <v>27784</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -3299,13 +3284,13 @@
         <v>26829</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -3314,13 +3299,13 @@
         <v>54613</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3320,13 @@
         <v>10616</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3350,13 +3335,13 @@
         <v>5340</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3365,13 +3350,13 @@
         <v>15956</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,7 +3377,7 @@
         <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -3401,13 +3386,13 @@
         <v>4985</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -3416,13 +3401,13 @@
         <v>4985</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3422,13 @@
         <v>1071</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3452,13 +3437,13 @@
         <v>2280</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3467,13 +3452,13 @@
         <v>3351</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3473,13 @@
         <v>1067</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3509,7 +3494,7 @@
         <v>47</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3518,13 +3503,13 @@
         <v>1067</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,7 +3530,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3554,13 +3539,13 @@
         <v>795</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3569,13 +3554,13 @@
         <v>795</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,13 +3575,13 @@
         <v>935</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3605,13 +3590,13 @@
         <v>874</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3620,13 +3605,13 @@
         <v>1810</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,13 +3626,13 @@
         <v>926</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3656,13 +3641,13 @@
         <v>804</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3671,13 +3656,13 @@
         <v>1730</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,10 +3865,10 @@
         <v>220</v>
       </c>
       <c r="P42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3883,13 @@
         <v>25989</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H43" s="7">
         <v>46</v>
@@ -3913,13 +3898,13 @@
         <v>28438</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M43" s="7">
         <v>74</v>
@@ -3928,13 +3913,13 @@
         <v>54427</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3934,13 @@
         <v>19270</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H44" s="7">
         <v>20</v>
@@ -3964,13 +3949,13 @@
         <v>11972</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>236</v>
+        <v>48</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -3979,13 +3964,13 @@
         <v>31243</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3985,13 @@
         <v>3473</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>240</v>
+        <v>124</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H45" s="7">
         <v>13</v>
@@ -4015,13 +4000,13 @@
         <v>15124</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M45" s="7">
         <v>16</v>
@@ -4030,13 +4015,13 @@
         <v>18597</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,7 +4042,7 @@
         <v>46</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4066,13 +4051,13 @@
         <v>670</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -4081,13 +4066,13 @@
         <v>1586</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,7 +4093,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -4117,13 +4102,13 @@
         <v>2391</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -4132,13 +4117,13 @@
         <v>2391</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,7 +4144,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -4168,13 +4153,13 @@
         <v>2576</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
@@ -4183,13 +4168,13 @@
         <v>2576</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4189,13 @@
         <v>831</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4219,13 +4204,13 @@
         <v>596</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>259</v>
+        <v>106</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -4234,13 +4219,13 @@
         <v>1426</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4240,13 @@
         <v>2895</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4276,7 +4261,7 @@
         <v>47</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -4285,13 +4270,13 @@
         <v>2895</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4347,7 +4332,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4359,13 +4344,13 @@
         <v>96153</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>265</v>
+        <v>33</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H52" s="7">
         <v>104</v>
@@ -4374,13 +4359,13 @@
         <v>64832</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M52" s="7">
         <v>207</v>
@@ -4389,13 +4374,13 @@
         <v>160985</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4395,13 @@
         <v>77590</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="H53" s="7">
         <v>86</v>
@@ -4425,13 +4410,13 @@
         <v>50966</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M53" s="7">
         <v>173</v>
@@ -4440,13 +4425,13 @@
         <v>128556</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4446,13 @@
         <v>95896</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H54" s="7">
         <v>116</v>
@@ -4476,13 +4461,13 @@
         <v>62246</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M54" s="7">
         <v>225</v>
@@ -4491,13 +4476,13 @@
         <v>158142</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4512,13 +4497,13 @@
         <v>22022</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H55" s="7">
         <v>42</v>
@@ -4527,13 +4512,13 @@
         <v>22728</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M55" s="7">
         <v>69</v>
@@ -4542,13 +4527,13 @@
         <v>44750</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4548,13 @@
         <v>14590</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>302</v>
+        <v>166</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H56" s="7">
         <v>18</v>
@@ -4578,13 +4563,13 @@
         <v>10974</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M56" s="7">
         <v>35</v>
@@ -4593,13 +4578,13 @@
         <v>25564</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,13 +4599,13 @@
         <v>7165</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H57" s="7">
         <v>9</v>
@@ -4629,13 +4614,13 @@
         <v>5742</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>172</v>
+        <v>307</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M57" s="7">
         <v>16</v>
@@ -4644,13 +4629,13 @@
         <v>12907</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4665,13 +4650,13 @@
         <v>3384</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -4680,13 +4665,13 @@
         <v>2778</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
@@ -4695,13 +4680,13 @@
         <v>6161</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,13 +4701,13 @@
         <v>1814</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>323</v>
+        <v>165</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4731,13 +4716,13 @@
         <v>1701</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>113</v>
+        <v>319</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -4746,13 +4731,13 @@
         <v>3514</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>326</v>
+        <v>106</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,7 +4758,7 @@
         <v>47</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="H60" s="7">
         <v>3</v>
@@ -4782,13 +4767,13 @@
         <v>2015</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>183</v>
+        <v>322</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4797,13 +4782,13 @@
         <v>2015</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,13 +4803,13 @@
         <v>878</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4833,13 +4818,13 @@
         <v>680</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4854,7 +4839,7 @@
         <v>46</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4860,7 @@
         <v>47</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4890,7 +4875,7 @@
         <v>47</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4905,7 +4890,7 @@
         <v>47</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>175</v>
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,7 +4946,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -4973,13 +4958,13 @@
         <v>7629</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H64" s="7">
         <v>6</v>
@@ -4988,13 +4973,13 @@
         <v>3621</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M64" s="7">
         <v>17</v>
@@ -5003,13 +4988,13 @@
         <v>11250</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5009,13 @@
         <v>3460</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>32</v>
+        <v>339</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H65" s="7">
         <v>6</v>
@@ -5039,13 +5024,13 @@
         <v>3061</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M65" s="7">
         <v>11</v>
@@ -5054,13 +5039,13 @@
         <v>6522</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>350</v>
+        <v>54</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,13 +5060,13 @@
         <v>5167</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="H66" s="7">
         <v>15</v>
@@ -5090,13 +5075,13 @@
         <v>7357</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>209</v>
+        <v>350</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M66" s="7">
         <v>23</v>
@@ -5105,13 +5090,13 @@
         <v>12524</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,13 +5111,13 @@
         <v>1319</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>360</v>
+        <v>224</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="H67" s="7">
         <v>4</v>
@@ -5141,13 +5126,13 @@
         <v>2068</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>235</v>
+        <v>357</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M67" s="7">
         <v>6</v>
@@ -5156,13 +5141,13 @@
         <v>3387</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,13 +5162,13 @@
         <v>760</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -5192,13 +5177,13 @@
         <v>1251</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="M68" s="7">
         <v>3</v>
@@ -5207,13 +5192,13 @@
         <v>2011</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,13 +5213,13 @@
         <v>740</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>373</v>
+        <v>154</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -5243,13 +5228,13 @@
         <v>611</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="M69" s="7">
         <v>2</v>
@@ -5258,13 +5243,13 @@
         <v>1352</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>376</v>
+        <v>104</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5270,7 @@
         <v>47</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5294,13 +5279,13 @@
         <v>900</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -5309,13 +5294,13 @@
         <v>900</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5315,13 @@
         <v>697</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5351,7 +5336,7 @@
         <v>47</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -5360,13 +5345,13 @@
         <v>697</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5372,7 @@
         <v>47</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5402,7 +5387,7 @@
         <v>47</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5417,7 +5402,7 @@
         <v>47</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5423,7 @@
         <v>47</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5453,7 +5438,7 @@
         <v>47</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -5468,7 +5453,7 @@
         <v>47</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5474,7 @@
         <v>47</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5504,7 +5489,7 @@
         <v>47</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -5519,7 +5504,7 @@
         <v>47</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>321</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5572,13 @@
         <v>654994</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H76" s="7">
         <v>594</v>
@@ -5602,13 +5587,13 @@
         <v>482832</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>73</v>
+        <v>385</v>
       </c>
       <c r="M76" s="7">
         <v>1183</v>
@@ -5617,13 +5602,13 @@
         <v>1137826</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5623,13 @@
         <v>525163</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H77" s="7">
         <v>520</v>
@@ -5653,13 +5638,13 @@
         <v>390291</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="M77" s="7">
         <v>964</v>
@@ -5668,13 +5653,13 @@
         <v>915453</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,13 +5674,13 @@
         <v>461641</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>147</v>
+        <v>400</v>
       </c>
       <c r="H78" s="7">
         <v>647</v>
@@ -5704,13 +5689,13 @@
         <v>432100</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M78" s="7">
         <v>1099</v>
@@ -5719,13 +5704,13 @@
         <v>893741</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +5725,13 @@
         <v>115082</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="H79" s="7">
         <v>153</v>
@@ -5755,13 +5740,13 @@
         <v>105307</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="M79" s="7">
         <v>265</v>
@@ -5770,13 +5755,13 @@
         <v>220389</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5776,13 @@
         <v>51836</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="H80" s="7">
         <v>55</v>
@@ -5806,13 +5791,13 @@
         <v>40078</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>233</v>
+        <v>418</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="M80" s="7">
         <v>106</v>
@@ -5821,13 +5806,13 @@
         <v>91914</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>423</v>
+        <v>166</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>163</v>
+        <v>420</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5827,13 @@
         <v>12852</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>425</v>
+        <v>194</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>101</v>
+        <v>422</v>
       </c>
       <c r="H81" s="7">
         <v>36</v>
@@ -5857,13 +5842,13 @@
         <v>32692</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>427</v>
+        <v>234</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M81" s="7">
         <v>48</v>
@@ -5872,13 +5857,13 @@
         <v>45544</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>255</v>
+        <v>425</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>429</v>
+        <v>191</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>430</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,10 +5881,10 @@
         <v>120</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H82" s="7">
         <v>10</v>
@@ -5908,13 +5893,13 @@
         <v>6628</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M82" s="7">
         <v>15</v>
@@ -5923,13 +5908,13 @@
         <v>12000</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,13 +5929,13 @@
         <v>3578</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="H83" s="7">
         <v>9</v>
@@ -5959,13 +5944,13 @@
         <v>6030</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>189</v>
+        <v>432</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="M83" s="7">
         <v>14</v>
@@ -5980,7 +5965,7 @@
         <v>124</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,7 +5986,7 @@
         <v>47</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H84" s="7">
         <v>8</v>
@@ -6010,13 +5995,13 @@
         <v>5386</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>248</v>
+        <v>432</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M84" s="7">
         <v>8</v>
@@ -6028,7 +6013,7 @@
         <v>124</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="Q84" s="7" t="s">
         <v>122</v>
@@ -6046,13 +6031,13 @@
         <v>2644</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>181</v>
+        <v>108</v>
       </c>
       <c r="H85" s="7">
         <v>3</v>
@@ -6061,13 +6046,13 @@
         <v>2149</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="M85" s="7">
         <v>6</v>
@@ -6076,13 +6061,13 @@
         <v>4793</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>332</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6082,13 @@
         <v>4917</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>439</v>
+        <v>250</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -6112,13 +6097,13 @@
         <v>804</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M86" s="7">
         <v>5</v>
@@ -6127,13 +6112,13 @@
         <v>5721</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>240</v>
+        <v>432</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>442</v>
+        <v>250</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>110</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,7 +6174,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE13FAC3-E1AC-4AA8-9E99-2F05396ADF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92CFA8A7-A002-40A7-A706-38F37D4F5307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4B592185-FBD9-4BBA-83A2-EE4720EFF319}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F732832-494B-4205-A576-4EEB16D5A6D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1764,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261ECD65-43EC-4103-BA29-C342534E24ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA885D95-01D1-48F3-AE7E-F4F4F025BBAB}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92CFA8A7-A002-40A7-A706-38F37D4F5307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE941917-BB34-4283-B5A4-DF4B76B8D6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4F732832-494B-4205-A576-4EEB16D5A6D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97AFAB4B-D31A-4F62-ACA3-9BBED910B15F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="444">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -71,1285 +71,1300 @@
     <t>34,73%</t>
   </si>
   <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>45,64%</t>
   </si>
   <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
     <t>31,93%</t>
   </si>
   <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>57,28%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
     <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1764,7 +1779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA885D95-01D1-48F3-AE7E-F4F4F025BBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1DD573-EAA2-4046-9026-E23B81E6274D}">
   <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2517,13 +2532,13 @@
         <v>110715</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -2532,13 +2547,13 @@
         <v>247054</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2568,13 @@
         <v>99920</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
@@ -2568,13 +2583,13 @@
         <v>99313</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
@@ -2583,13 +2598,13 @@
         <v>199233</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2604,13 +2619,13 @@
         <v>75967</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>91</v>
@@ -2619,13 +2634,13 @@
         <v>90224</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
@@ -2634,13 +2649,13 @@
         <v>166191</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2670,13 @@
         <v>31696</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -2670,13 +2685,13 @@
         <v>15010</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
@@ -2685,13 +2700,13 @@
         <v>46706</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2721,13 @@
         <v>6599</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -2721,13 +2736,13 @@
         <v>3892</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -2736,13 +2751,13 @@
         <v>10492</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2772,13 @@
         <v>1474</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -2772,13 +2787,13 @@
         <v>4325</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -2787,13 +2802,13 @@
         <v>5799</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,7 +2829,7 @@
         <v>47</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2829,7 +2844,7 @@
         <v>47</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2844,7 +2859,7 @@
         <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2880,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -2874,7 +2889,7 @@
         <v>1939</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>46</v>
@@ -2916,7 +2931,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2931,7 +2946,7 @@
         <v>47</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2946,7 +2961,7 @@
         <v>47</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,7 +2982,7 @@
         <v>47</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2982,7 +2997,7 @@
         <v>47</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2997,7 +3012,7 @@
         <v>47</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,7 +3048,7 @@
         <v>47</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3218,13 +3233,13 @@
         <v>114559</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>76</v>
+        <v>145</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>186</v>
@@ -3233,13 +3248,13 @@
         <v>121011</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>301</v>
@@ -3248,13 +3263,13 @@
         <v>235570</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3284,13 @@
         <v>27784</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -3284,13 +3299,13 @@
         <v>26829</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
@@ -3299,13 +3314,13 @@
         <v>54613</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,13 +3335,13 @@
         <v>10616</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -3335,13 +3350,13 @@
         <v>5340</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
@@ -3350,13 +3365,13 @@
         <v>15956</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3392,7 @@
         <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -3386,13 +3401,13 @@
         <v>4985</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M33" s="7">
         <v>7</v>
@@ -3401,13 +3416,13 @@
         <v>4985</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,13 +3437,13 @@
         <v>1071</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -3437,13 +3452,13 @@
         <v>2280</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
@@ -3452,13 +3467,13 @@
         <v>3351</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3488,13 @@
         <v>1067</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3494,7 +3509,7 @@
         <v>47</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -3503,13 +3518,13 @@
         <v>1067</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3545,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -3539,13 +3554,13 @@
         <v>795</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -3554,13 +3569,13 @@
         <v>795</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3590,13 @@
         <v>935</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -3590,13 +3605,13 @@
         <v>874</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -3605,13 +3620,13 @@
         <v>1810</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3641,13 @@
         <v>926</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -3641,13 +3656,13 @@
         <v>804</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
@@ -3656,13 +3671,13 @@
         <v>1730</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>194</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,10 +3880,10 @@
         <v>220</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3898,13 @@
         <v>25989</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H43" s="7">
         <v>46</v>
@@ -3898,13 +3913,13 @@
         <v>28438</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M43" s="7">
         <v>74</v>
@@ -3913,13 +3928,13 @@
         <v>54427</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3934,13 +3949,13 @@
         <v>19270</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H44" s="7">
         <v>20</v>
@@ -3949,13 +3964,13 @@
         <v>11972</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
       <c r="M44" s="7">
         <v>39</v>
@@ -3964,13 +3979,13 @@
         <v>31243</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +4000,13 @@
         <v>3473</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>124</v>
+        <v>240</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H45" s="7">
         <v>13</v>
@@ -4000,13 +4015,13 @@
         <v>15124</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M45" s="7">
         <v>16</v>
@@ -4015,13 +4030,13 @@
         <v>18597</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4057,7 @@
         <v>46</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -4051,13 +4066,13 @@
         <v>670</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
@@ -4066,13 +4081,13 @@
         <v>1586</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,7 +4108,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
@@ -4102,13 +4117,13 @@
         <v>2391</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>124</v>
+        <v>249</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
@@ -4117,13 +4132,13 @@
         <v>2391</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,7 +4159,7 @@
         <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
@@ -4153,13 +4168,13 @@
         <v>2576</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>186</v>
+        <v>255</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
@@ -4168,13 +4183,13 @@
         <v>2576</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4204,13 @@
         <v>831</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>194</v>
+        <v>257</v>
       </c>
       <c r="H49" s="7">
         <v>1</v>
@@ -4204,13 +4219,13 @@
         <v>596</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
@@ -4219,13 +4234,13 @@
         <v>1426</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>169</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4255,13 @@
         <v>2895</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4261,7 +4276,7 @@
         <v>47</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
@@ -4270,13 +4285,13 @@
         <v>2895</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>259</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4347,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4344,13 +4359,13 @@
         <v>96153</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H52" s="7">
         <v>104</v>
@@ -4359,13 +4374,13 @@
         <v>64832</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M52" s="7">
         <v>207</v>
@@ -4374,13 +4389,13 @@
         <v>160985</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4410,13 @@
         <v>77590</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H53" s="7">
         <v>86</v>
@@ -4410,13 +4425,13 @@
         <v>50966</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M53" s="7">
         <v>173</v>
@@ -4425,13 +4440,13 @@
         <v>128556</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4461,13 @@
         <v>95896</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H54" s="7">
         <v>116</v>
@@ -4461,13 +4476,13 @@
         <v>62246</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M54" s="7">
         <v>225</v>
@@ -4476,13 +4491,13 @@
         <v>158142</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4512,13 @@
         <v>22022</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H55" s="7">
         <v>42</v>
@@ -4512,13 +4527,13 @@
         <v>22728</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M55" s="7">
         <v>69</v>
@@ -4527,13 +4542,13 @@
         <v>44750</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,13 +4563,13 @@
         <v>14590</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>166</v>
+        <v>302</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H56" s="7">
         <v>18</v>
@@ -4563,13 +4578,13 @@
         <v>10974</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M56" s="7">
         <v>35</v>
@@ -4578,13 +4593,13 @@
         <v>25564</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4599,13 +4614,13 @@
         <v>7165</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H57" s="7">
         <v>9</v>
@@ -4614,13 +4629,13 @@
         <v>5742</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>307</v>
+        <v>172</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="M57" s="7">
         <v>16</v>
@@ -4629,13 +4644,13 @@
         <v>12907</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4665,13 @@
         <v>3384</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -4665,13 +4680,13 @@
         <v>2778</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
@@ -4680,13 +4695,13 @@
         <v>6161</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4716,13 @@
         <v>1814</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
@@ -4716,13 +4731,13 @@
         <v>1701</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
@@ -4731,13 +4746,13 @@
         <v>3514</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>106</v>
+        <v>326</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,7 +4773,7 @@
         <v>47</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="H60" s="7">
         <v>3</v>
@@ -4767,13 +4782,13 @@
         <v>2015</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>120</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
@@ -4782,13 +4797,13 @@
         <v>2015</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4818,13 @@
         <v>878</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H61" s="7">
         <v>1</v>
@@ -4818,13 +4833,13 @@
         <v>680</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="K61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
@@ -4839,7 +4854,7 @@
         <v>46</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>243</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +4875,7 @@
         <v>47</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4875,7 +4890,7 @@
         <v>47</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4890,7 +4905,7 @@
         <v>47</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>327</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4961,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
@@ -4958,13 +4973,13 @@
         <v>7629</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H64" s="7">
         <v>6</v>
@@ -4973,13 +4988,13 @@
         <v>3621</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M64" s="7">
         <v>17</v>
@@ -4988,13 +5003,13 @@
         <v>11250</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,13 +5024,13 @@
         <v>3460</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>339</v>
+        <v>32</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H65" s="7">
         <v>6</v>
@@ -5024,13 +5039,13 @@
         <v>3061</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M65" s="7">
         <v>11</v>
@@ -5039,13 +5054,13 @@
         <v>6522</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5060,13 +5075,13 @@
         <v>5167</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="H66" s="7">
         <v>15</v>
@@ -5075,13 +5090,13 @@
         <v>7357</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>350</v>
+        <v>209</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M66" s="7">
         <v>23</v>
@@ -5090,13 +5105,13 @@
         <v>12524</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5111,13 +5126,13 @@
         <v>1319</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>224</v>
+        <v>360</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="H67" s="7">
         <v>4</v>
@@ -5126,13 +5141,13 @@
         <v>2068</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>357</v>
+        <v>235</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M67" s="7">
         <v>6</v>
@@ -5141,13 +5156,13 @@
         <v>3387</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>230</v>
+        <v>365</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,13 +5177,13 @@
         <v>760</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
@@ -5177,13 +5192,13 @@
         <v>1251</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M68" s="7">
         <v>3</v>
@@ -5192,13 +5207,13 @@
         <v>2011</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5228,13 @@
         <v>740</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>154</v>
+        <v>373</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
@@ -5228,13 +5243,13 @@
         <v>611</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M69" s="7">
         <v>2</v>
@@ -5243,13 +5258,13 @@
         <v>1352</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>104</v>
+        <v>376</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,7 +5285,7 @@
         <v>47</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
@@ -5279,13 +5294,13 @@
         <v>900</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
@@ -5294,13 +5309,13 @@
         <v>900</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5330,13 @@
         <v>697</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5336,7 +5351,7 @@
         <v>47</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
@@ -5345,13 +5360,13 @@
         <v>697</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,7 +5387,7 @@
         <v>47</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5387,7 +5402,7 @@
         <v>47</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5402,7 +5417,7 @@
         <v>47</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,7 +5438,7 @@
         <v>47</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5438,7 +5453,7 @@
         <v>47</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -5453,7 +5468,7 @@
         <v>47</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,7 +5489,7 @@
         <v>47</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5489,7 +5504,7 @@
         <v>47</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -5504,7 +5519,7 @@
         <v>47</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5587,13 @@
         <v>654994</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H76" s="7">
         <v>594</v>
@@ -5587,13 +5602,13 @@
         <v>482832</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>385</v>
+        <v>73</v>
       </c>
       <c r="M76" s="7">
         <v>1183</v>
@@ -5602,13 +5617,13 @@
         <v>1137826</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>387</v>
+        <v>14</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,13 +5638,13 @@
         <v>525163</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H77" s="7">
         <v>520</v>
@@ -5638,13 +5653,13 @@
         <v>390291</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M77" s="7">
         <v>964</v>
@@ -5653,13 +5668,13 @@
         <v>915453</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5674,13 +5689,13 @@
         <v>461641</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>400</v>
+        <v>147</v>
       </c>
       <c r="H78" s="7">
         <v>647</v>
@@ -5689,13 +5704,13 @@
         <v>432100</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="M78" s="7">
         <v>1099</v>
@@ -5704,13 +5719,13 @@
         <v>893741</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5725,13 +5740,13 @@
         <v>115082</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="H79" s="7">
         <v>153</v>
@@ -5740,13 +5755,13 @@
         <v>105307</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M79" s="7">
         <v>265</v>
@@ -5755,13 +5770,13 @@
         <v>220389</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5791,13 @@
         <v>51836</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="H80" s="7">
         <v>55</v>
@@ -5791,13 +5806,13 @@
         <v>40078</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>418</v>
+        <v>233</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M80" s="7">
         <v>106</v>
@@ -5806,13 +5821,13 @@
         <v>91914</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>166</v>
+        <v>423</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>420</v>
+        <v>163</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5827,13 +5842,13 @@
         <v>12852</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>194</v>
+        <v>425</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>422</v>
+        <v>101</v>
       </c>
       <c r="H81" s="7">
         <v>36</v>
@@ -5842,13 +5857,13 @@
         <v>32692</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>234</v>
+        <v>427</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M81" s="7">
         <v>48</v>
@@ -5857,13 +5872,13 @@
         <v>45544</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>425</v>
+        <v>255</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>191</v>
+        <v>429</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>236</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,10 +5896,10 @@
         <v>120</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H82" s="7">
         <v>10</v>
@@ -5893,13 +5908,13 @@
         <v>6628</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M82" s="7">
         <v>15</v>
@@ -5908,13 +5923,13 @@
         <v>12000</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5929,13 +5944,13 @@
         <v>3578</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="H83" s="7">
         <v>9</v>
@@ -5944,13 +5959,13 @@
         <v>6030</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>432</v>
+        <v>189</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="M83" s="7">
         <v>14</v>
@@ -5965,7 +5980,7 @@
         <v>124</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -5986,7 +6001,7 @@
         <v>47</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H84" s="7">
         <v>8</v>
@@ -5995,13 +6010,13 @@
         <v>5386</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="K84" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L84" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M84" s="7">
         <v>8</v>
@@ -6013,7 +6028,7 @@
         <v>124</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>250</v>
+        <v>439</v>
       </c>
       <c r="Q84" s="7" t="s">
         <v>122</v>
@@ -6031,13 +6046,13 @@
         <v>2644</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="H85" s="7">
         <v>3</v>
@@ -6046,13 +6061,13 @@
         <v>2149</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="M85" s="7">
         <v>6</v>
@@ -6061,13 +6076,13 @@
         <v>4793</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>122</v>
+        <v>332</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,13 +6097,13 @@
         <v>4917</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>250</v>
+        <v>439</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -6097,13 +6112,13 @@
         <v>804</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M86" s="7">
         <v>5</v>
@@ -6112,13 +6127,13 @@
         <v>5721</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>432</v>
+        <v>240</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>250</v>
+        <v>442</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>437</v>
+        <v>110</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6174,7 +6189,7 @@
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE941917-BB34-4283-B5A4-DF4B76B8D6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BFDFCF9-19AA-4158-A96F-9ADB8071268E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{97AFAB4B-D31A-4F62-ACA3-9BBED910B15F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{74061D23-1A2D-49EB-9A7D-CB96C6C43DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="455">
   <si>
     <t>Población según su autopercepción de su capacidad laboral actual en 2023 (Tasa respuesta: 42,47%)</t>
   </si>
@@ -65,1306 +65,1339 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>17,41%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
     <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,01%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1779,8 +1812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1DD573-EAA2-4046-9026-E23B81E6274D}">
-  <dimension ref="A1:Q88"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E143CDD-9B01-41CD-B5BE-27F9EDC1DF56}">
+  <dimension ref="A1:Q100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1900,7 +1933,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>30896</v>
+        <v>29731</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>10</v>
@@ -1915,7 +1948,7 @@
         <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>41832</v>
+        <v>37582</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>13</v>
@@ -1930,7 +1963,7 @@
         <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>72727</v>
+        <v>67313</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1951,7 +1984,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="7">
-        <v>25646</v>
+        <v>28618</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -1966,7 +1999,7 @@
         <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>17691</v>
+        <v>15032</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
@@ -1981,7 +2014,7 @@
         <v>22</v>
       </c>
       <c r="N5" s="7">
-        <v>43337</v>
+        <v>43650</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -2002,7 +2035,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>26133</v>
+        <v>26963</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -2017,7 +2050,7 @@
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>13341</v>
+        <v>11674</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>31</v>
@@ -2032,7 +2065,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="7">
-        <v>39474</v>
+        <v>38637</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>34</v>
@@ -2053,7 +2086,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>6272</v>
+        <v>5305</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -2068,7 +2101,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>10234</v>
+        <v>9219</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2083,7 +2116,7 @@
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>16505</v>
+        <v>14524</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -2119,7 +2152,7 @@
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>6649</v>
+        <v>5968</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -2134,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>6649</v>
+        <v>5968</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>52</v>
@@ -2170,7 +2203,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1904</v>
+        <v>1762</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -2185,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="N9" s="7">
-        <v>1904</v>
+        <v>1762</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2461,7 +2494,7 @@
         <v>47</v>
       </c>
       <c r="D15" s="7">
-        <v>88947</v>
+        <v>90617</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>61</v>
@@ -2476,7 +2509,7 @@
         <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>91651</v>
+        <v>81238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>61</v>
@@ -2491,7 +2524,7 @@
         <v>103</v>
       </c>
       <c r="N15" s="7">
-        <v>180597</v>
+        <v>171855</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
@@ -2514,7 +2547,7 @@
         <v>97</v>
       </c>
       <c r="D16" s="7">
-        <v>136338</v>
+        <v>131977</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>63</v>
@@ -2529,31 +2562,31 @@
         <v>103</v>
       </c>
       <c r="I16" s="7">
-        <v>110715</v>
+        <v>97950</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
       </c>
       <c r="N16" s="7">
-        <v>247054</v>
+        <v>229926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,46 +2598,46 @@
         <v>69</v>
       </c>
       <c r="D17" s="7">
-        <v>99920</v>
+        <v>98504</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>80</v>
       </c>
       <c r="I17" s="7">
-        <v>99313</v>
+        <v>146891</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="7">
         <v>149</v>
       </c>
       <c r="N17" s="7">
-        <v>199233</v>
+        <v>245394</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,46 +2649,46 @@
         <v>54</v>
       </c>
       <c r="D18" s="7">
-        <v>75967</v>
+        <v>77623</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>91</v>
       </c>
       <c r="I18" s="7">
-        <v>90224</v>
+        <v>84953</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>145</v>
       </c>
       <c r="N18" s="7">
-        <v>166191</v>
+        <v>162575</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,46 +2700,46 @@
         <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>31696</v>
+        <v>31908</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
       </c>
       <c r="I19" s="7">
-        <v>15010</v>
+        <v>14004</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>46706</v>
+        <v>45912</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,46 +2751,46 @@
         <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>6599</v>
+        <v>6578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>3892</v>
+        <v>3419</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>10492</v>
+        <v>9998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,46 +2802,46 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>1474</v>
+        <v>1468</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>4325</v>
+        <v>3802</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
       </c>
       <c r="N21" s="7">
-        <v>5799</v>
+        <v>5269</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>1939</v>
+        <v>1898</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>118</v>
@@ -2901,16 +2934,16 @@
         <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>1939</v>
+        <v>1898</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3054,16 +3087,16 @@
         <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,7 +3108,7 @@
         <v>249</v>
       </c>
       <c r="D27" s="7">
-        <v>353091</v>
+        <v>349143</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>61</v>
@@ -3090,7 +3123,7 @@
         <v>300</v>
       </c>
       <c r="I27" s="7">
-        <v>325419</v>
+        <v>352916</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>61</v>
@@ -3105,7 +3138,7 @@
         <v>549</v>
       </c>
       <c r="N27" s="7">
-        <v>678510</v>
+        <v>702059</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>61</v>
@@ -3119,7 +3152,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B28" s="5">
         <v>10</v>
@@ -3128,46 +3161,46 @@
         <v>186</v>
       </c>
       <c r="D28" s="7">
-        <v>193941</v>
+        <v>183062</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>173</v>
       </c>
       <c r="I28" s="7">
-        <v>127938</v>
+        <v>118398</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M28" s="7">
         <v>359</v>
       </c>
       <c r="N28" s="7">
-        <v>321878</v>
+        <v>301460</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,46 +3212,46 @@
         <v>129</v>
       </c>
       <c r="D29" s="7">
-        <v>129918</v>
+        <v>127094</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H29" s="7">
         <v>129</v>
       </c>
       <c r="I29" s="7">
-        <v>85981</v>
+        <v>80810</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>258</v>
       </c>
       <c r="N29" s="7">
-        <v>215899</v>
+        <v>207903</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,46 +3263,46 @@
         <v>115</v>
       </c>
       <c r="D30" s="7">
-        <v>114559</v>
+        <v>112458</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>186</v>
       </c>
       <c r="I30" s="7">
-        <v>121011</v>
+        <v>113221</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M30" s="7">
         <v>301</v>
       </c>
       <c r="N30" s="7">
-        <v>235570</v>
+        <v>225680</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,46 +3314,46 @@
         <v>30</v>
       </c>
       <c r="D31" s="7">
-        <v>27784</v>
+        <v>26304</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
       </c>
       <c r="I31" s="7">
-        <v>26829</v>
+        <v>25035</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M31" s="7">
         <v>69</v>
       </c>
       <c r="N31" s="7">
-        <v>54613</v>
+        <v>51340</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,46 +3365,46 @@
         <v>9</v>
       </c>
       <c r="D32" s="7">
-        <v>10616</v>
+        <v>10395</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
       </c>
       <c r="I32" s="7">
-        <v>5340</v>
+        <v>4834</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M32" s="7">
         <v>16</v>
       </c>
       <c r="N32" s="7">
-        <v>15956</v>
+        <v>15229</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,19 +3425,19 @@
         <v>47</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>4985</v>
+        <v>4464</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>173</v>
@@ -3413,7 +3446,7 @@
         <v>7</v>
       </c>
       <c r="N33" s="7">
-        <v>4985</v>
+        <v>4464</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>174</v>
@@ -3434,46 +3467,46 @@
         <v>1</v>
       </c>
       <c r="D34" s="7">
-        <v>1071</v>
+        <v>1047</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
       </c>
       <c r="I34" s="7">
-        <v>2280</v>
+        <v>2066</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>179</v>
+        <v>100</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>4</v>
       </c>
       <c r="N34" s="7">
-        <v>3351</v>
+        <v>3113</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,16 +3518,16 @@
         <v>2</v>
       </c>
       <c r="D35" s="7">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>184</v>
+        <v>57</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3515,16 +3548,16 @@
         <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>1067</v>
+        <v>1039</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,37 +3578,37 @@
         <v>47</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
       </c>
       <c r="I36" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
       </c>
       <c r="N36" s="7">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3587,46 +3620,46 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>935</v>
+        <v>880</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
       </c>
       <c r="I37" s="7">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
       </c>
       <c r="N37" s="7">
-        <v>1810</v>
+        <v>1723</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3638,46 +3671,46 @@
         <v>1</v>
       </c>
       <c r="D38" s="7">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>804</v>
+        <v>771</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M38" s="7">
         <v>2</v>
       </c>
       <c r="N38" s="7">
-        <v>1730</v>
+        <v>1660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>105</v>
+        <v>193</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,7 +3722,7 @@
         <v>474</v>
       </c>
       <c r="D39" s="7">
-        <v>480817</v>
+        <v>463168</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>61</v>
@@ -3704,7 +3737,7 @@
         <v>547</v>
       </c>
       <c r="I39" s="7">
-        <v>376838</v>
+        <v>351210</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>61</v>
@@ -3719,7 +3752,7 @@
         <v>1021</v>
       </c>
       <c r="N39" s="7">
-        <v>857655</v>
+        <v>814378</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>61</v>
@@ -3733,7 +3766,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="5">
         <v>10</v>
@@ -3742,46 +3775,46 @@
         <v>173</v>
       </c>
       <c r="D40" s="7">
-        <v>190038</v>
+        <v>178449</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H40" s="7">
         <v>183</v>
       </c>
       <c r="I40" s="7">
-        <v>133894</v>
+        <v>145277</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="L40" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M40" s="7">
         <v>356</v>
       </c>
       <c r="N40" s="7">
-        <v>323932</v>
+        <v>323727</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,46 +3826,46 @@
         <v>143</v>
       </c>
       <c r="D41" s="7">
-        <v>188629</v>
+        <v>376145</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H41" s="7">
         <v>208</v>
       </c>
       <c r="I41" s="7">
-        <v>133277</v>
+        <v>123248</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M41" s="7">
         <v>351</v>
       </c>
       <c r="N41" s="7">
-        <v>321906</v>
+        <v>499393</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,46 +3877,46 @@
         <v>152</v>
       </c>
       <c r="D42" s="7">
-        <v>143919</v>
+        <v>141349</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H42" s="7">
         <v>231</v>
       </c>
       <c r="I42" s="7">
-        <v>137920</v>
+        <v>130254</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M42" s="7">
         <v>383</v>
       </c>
       <c r="N42" s="7">
-        <v>281839</v>
+        <v>271603</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3895,46 +3928,46 @@
         <v>28</v>
       </c>
       <c r="D43" s="7">
-        <v>25989</v>
+        <v>24827</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="G43" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7">
+        <v>46</v>
+      </c>
+      <c r="I43" s="7">
+        <v>26150</v>
+      </c>
+      <c r="J43" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="H43" s="7">
-        <v>46</v>
-      </c>
-      <c r="I43" s="7">
-        <v>28438</v>
-      </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="L43" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M43" s="7">
         <v>74</v>
       </c>
       <c r="N43" s="7">
-        <v>54427</v>
+        <v>50977</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3946,28 +3979,28 @@
         <v>19</v>
       </c>
       <c r="D44" s="7">
-        <v>19270</v>
+        <v>17962</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H44" s="7">
         <v>20</v>
       </c>
       <c r="I44" s="7">
-        <v>11972</v>
+        <v>10726</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="L44" s="7" t="s">
         <v>236</v>
@@ -3976,16 +4009,16 @@
         <v>39</v>
       </c>
       <c r="N44" s="7">
-        <v>31243</v>
+        <v>28688</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>237</v>
       </c>
       <c r="P44" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,43 +4030,43 @@
         <v>3</v>
       </c>
       <c r="D45" s="7">
-        <v>3473</v>
+        <v>3324</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H45" s="7">
         <v>13</v>
       </c>
       <c r="I45" s="7">
-        <v>15124</v>
+        <v>12541</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M45" s="7">
         <v>16</v>
       </c>
       <c r="N45" s="7">
-        <v>18597</v>
+        <v>15865</v>
       </c>
       <c r="O45" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P45" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>246</v>
@@ -4048,22 +4081,22 @@
         <v>1</v>
       </c>
       <c r="D46" s="7">
-        <v>917</v>
+        <v>869</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>670</v>
+        <v>634</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>248</v>
@@ -4072,22 +4105,22 @@
         <v>46</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>193</v>
+        <v>249</v>
       </c>
       <c r="M46" s="7">
         <v>2</v>
       </c>
       <c r="N46" s="7">
-        <v>1586</v>
+        <v>1503</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>249</v>
+        <v>183</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>250</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,37 +4141,37 @@
         <v>47</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="H47" s="7">
         <v>4</v>
       </c>
       <c r="I47" s="7">
-        <v>2391</v>
+        <v>2192</v>
       </c>
       <c r="J47" s="7" t="s">
         <v>251</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="M47" s="7">
         <v>4</v>
       </c>
       <c r="N47" s="7">
-        <v>2391</v>
+        <v>2192</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="P47" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,37 +4192,37 @@
         <v>47</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="H48" s="7">
         <v>4</v>
       </c>
       <c r="I48" s="7">
-        <v>2576</v>
+        <v>2408</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>254</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>248</v>
+        <v>183</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M48" s="7">
         <v>4</v>
       </c>
       <c r="N48" s="7">
-        <v>2576</v>
+        <v>2408</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,10 +4234,10 @@
         <v>1</v>
       </c>
       <c r="D49" s="7">
-        <v>831</v>
+        <v>802</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>46</v>
@@ -4216,31 +4249,31 @@
         <v>1</v>
       </c>
       <c r="I49" s="7">
-        <v>596</v>
+        <v>553</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M49" s="7">
         <v>2</v>
       </c>
       <c r="N49" s="7">
-        <v>1426</v>
+        <v>1355</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,16 +4285,16 @@
         <v>2</v>
       </c>
       <c r="D50" s="7">
-        <v>2895</v>
+        <v>2799</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4276,22 +4309,22 @@
         <v>47</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="M50" s="7">
         <v>2</v>
       </c>
       <c r="N50" s="7">
-        <v>2895</v>
+        <v>2799</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4336,7 @@
         <v>522</v>
       </c>
       <c r="D51" s="7">
-        <v>575960</v>
+        <v>746527</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>61</v>
@@ -4318,7 +4351,7 @@
         <v>711</v>
       </c>
       <c r="I51" s="7">
-        <v>466859</v>
+        <v>453983</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>61</v>
@@ -4333,7 +4366,7 @@
         <v>1233</v>
       </c>
       <c r="N51" s="7">
-        <v>1042819</v>
+        <v>1200510</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>61</v>
@@ -4347,7 +4380,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B52" s="5">
         <v>10</v>
@@ -4356,46 +4389,46 @@
         <v>103</v>
       </c>
       <c r="D52" s="7">
-        <v>96153</v>
+        <v>87077</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H52" s="7">
         <v>104</v>
       </c>
       <c r="I52" s="7">
-        <v>64832</v>
+        <v>58625</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M52" s="7">
         <v>207</v>
       </c>
       <c r="N52" s="7">
-        <v>160985</v>
+        <v>145702</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,46 +4440,46 @@
         <v>87</v>
       </c>
       <c r="D53" s="7">
-        <v>77590</v>
+        <v>73826</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H53" s="7">
         <v>86</v>
       </c>
       <c r="I53" s="7">
-        <v>50966</v>
+        <v>47250</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M53" s="7">
         <v>173</v>
       </c>
       <c r="N53" s="7">
-        <v>128556</v>
+        <v>121075</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,46 +4491,46 @@
         <v>109</v>
       </c>
       <c r="D54" s="7">
-        <v>95896</v>
+        <v>91789</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H54" s="7">
         <v>116</v>
       </c>
       <c r="I54" s="7">
-        <v>62246</v>
+        <v>57974</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>288</v>
+        <v>10</v>
       </c>
       <c r="M54" s="7">
         <v>225</v>
       </c>
       <c r="N54" s="7">
-        <v>158142</v>
+        <v>149763</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,46 +4542,46 @@
         <v>27</v>
       </c>
       <c r="D55" s="7">
-        <v>22022</v>
+        <v>20549</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H55" s="7">
         <v>42</v>
       </c>
       <c r="I55" s="7">
-        <v>22728</v>
+        <v>21251</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M55" s="7">
         <v>69</v>
       </c>
       <c r="N55" s="7">
-        <v>44750</v>
+        <v>41800</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,46 +4593,46 @@
         <v>17</v>
       </c>
       <c r="D56" s="7">
-        <v>14590</v>
+        <v>13321</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H56" s="7">
         <v>18</v>
       </c>
       <c r="I56" s="7">
-        <v>10974</v>
+        <v>9920</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="M56" s="7">
         <v>35</v>
       </c>
       <c r="N56" s="7">
-        <v>25564</v>
+        <v>23241</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,46 +4644,46 @@
         <v>7</v>
       </c>
       <c r="D57" s="7">
-        <v>7165</v>
+        <v>6779</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>190</v>
+        <v>306</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H57" s="7">
         <v>9</v>
       </c>
       <c r="I57" s="7">
-        <v>5742</v>
+        <v>5099</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>235</v>
+        <v>308</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="M57" s="7">
         <v>16</v>
       </c>
       <c r="N57" s="7">
-        <v>12907</v>
+        <v>11878</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,46 +4695,46 @@
         <v>3</v>
       </c>
       <c r="D58" s="7">
-        <v>3384</v>
+        <v>3082</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>316</v>
+        <v>57</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>317</v>
+        <v>121</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
       </c>
       <c r="I58" s="7">
-        <v>2778</v>
+        <v>2511</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M58" s="7">
         <v>7</v>
       </c>
       <c r="N58" s="7">
-        <v>6161</v>
+        <v>5592</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>188</v>
+        <v>318</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,46 +4746,46 @@
         <v>2</v>
       </c>
       <c r="D59" s="7">
-        <v>1814</v>
+        <v>1737</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>55</v>
+        <v>321</v>
       </c>
       <c r="H59" s="7">
         <v>3</v>
       </c>
       <c r="I59" s="7">
-        <v>1701</v>
+        <v>1581</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M59" s="7">
         <v>5</v>
       </c>
       <c r="N59" s="7">
-        <v>3514</v>
+        <v>3318</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,37 +4806,37 @@
         <v>47</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="H60" s="7">
         <v>3</v>
       </c>
       <c r="I60" s="7">
-        <v>2015</v>
+        <v>1866</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>183</v>
+        <v>326</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M60" s="7">
         <v>3</v>
       </c>
       <c r="N60" s="7">
-        <v>2015</v>
+        <v>1866</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>185</v>
+        <v>247</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4815,10 +4848,10 @@
         <v>1</v>
       </c>
       <c r="D61" s="7">
-        <v>878</v>
+        <v>826</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>46</v>
@@ -4830,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="I61" s="7">
-        <v>680</v>
+        <v>628</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>332</v>
@@ -4839,22 +4872,22 @@
         <v>46</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M61" s="7">
         <v>2</v>
       </c>
       <c r="N61" s="7">
-        <v>1557</v>
+        <v>1454</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>120</v>
+        <v>327</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4875,7 +4908,7 @@
         <v>47</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>328</v>
+        <v>118</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -4890,7 +4923,7 @@
         <v>47</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -4905,7 +4938,7 @@
         <v>47</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4950,7 @@
         <v>356</v>
       </c>
       <c r="D63" s="7">
-        <v>319491</v>
+        <v>298986</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>61</v>
@@ -4932,7 +4965,7 @@
         <v>386</v>
       </c>
       <c r="I63" s="7">
-        <v>224660</v>
+        <v>206705</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>61</v>
@@ -4947,7 +4980,7 @@
         <v>742</v>
       </c>
       <c r="N63" s="7">
-        <v>544151</v>
+        <v>505690</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>61</v>
@@ -4961,55 +4994,55 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B64" s="5">
         <v>10</v>
       </c>
       <c r="C64" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="7">
-        <v>7629</v>
+        <v>6285</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H64" s="7">
         <v>6</v>
       </c>
       <c r="I64" s="7">
-        <v>3621</v>
+        <v>3290</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M64" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N64" s="7">
-        <v>11250</v>
+        <v>9575</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,46 +5054,46 @@
         <v>5</v>
       </c>
       <c r="D65" s="7">
-        <v>3460</v>
+        <v>3400</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>32</v>
+        <v>347</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H65" s="7">
         <v>6</v>
       </c>
       <c r="I65" s="7">
-        <v>3061</v>
+        <v>2847</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M65" s="7">
         <v>11</v>
       </c>
       <c r="N65" s="7">
-        <v>6522</v>
+        <v>6247</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,49 +5102,49 @@
         <v>8</v>
       </c>
       <c r="C66" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" s="7">
-        <v>5167</v>
+        <v>4073</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H66" s="7">
         <v>15</v>
       </c>
       <c r="I66" s="7">
-        <v>7357</v>
+        <v>6934</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>209</v>
+        <v>359</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M66" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N66" s="7">
-        <v>12524</v>
+        <v>11008</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5123,46 +5156,46 @@
         <v>2</v>
       </c>
       <c r="D67" s="7">
-        <v>1319</v>
+        <v>1165</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="H67" s="7">
         <v>4</v>
       </c>
       <c r="I67" s="7">
-        <v>2068</v>
+        <v>1996</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>362</v>
+        <v>40</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>235</v>
+        <v>365</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M67" s="7">
         <v>6</v>
       </c>
       <c r="N67" s="7">
-        <v>3387</v>
+        <v>3160</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,46 +5207,46 @@
         <v>1</v>
       </c>
       <c r="D68" s="7">
-        <v>760</v>
+        <v>670</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="H68" s="7">
         <v>2</v>
       </c>
       <c r="I68" s="7">
-        <v>1251</v>
+        <v>1115</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K68" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M68" s="7">
         <v>3</v>
       </c>
       <c r="N68" s="7">
-        <v>2011</v>
+        <v>1785</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>192</v>
+        <v>375</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,46 +5258,46 @@
         <v>1</v>
       </c>
       <c r="D69" s="7">
-        <v>740</v>
+        <v>634</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H69" s="7">
         <v>1</v>
       </c>
       <c r="I69" s="7">
-        <v>611</v>
+        <v>566</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="K69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="M69" s="7">
         <v>2</v>
       </c>
       <c r="N69" s="7">
-        <v>1352</v>
+        <v>1200</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>376</v>
+        <v>52</v>
       </c>
       <c r="P69" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,37 +5318,37 @@
         <v>47</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H70" s="7">
         <v>2</v>
       </c>
       <c r="I70" s="7">
-        <v>900</v>
+        <v>845</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="K70" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="M70" s="7">
         <v>2</v>
       </c>
       <c r="N70" s="7">
-        <v>900</v>
+        <v>845</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>325</v>
+        <v>384</v>
       </c>
       <c r="P70" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,16 +5360,16 @@
         <v>1</v>
       </c>
       <c r="D71" s="7">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H71" s="7">
         <v>0</v>
@@ -5351,22 +5384,22 @@
         <v>47</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M71" s="7">
         <v>1</v>
       </c>
       <c r="N71" s="7">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="P71" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5420,7 @@
         <v>47</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5402,7 +5435,7 @@
         <v>47</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5417,7 +5450,7 @@
         <v>47</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5438,7 +5471,7 @@
         <v>47</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5453,7 +5486,7 @@
         <v>47</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M73" s="7">
         <v>0</v>
@@ -5468,7 +5501,7 @@
         <v>47</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,7 +5522,7 @@
         <v>47</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5504,7 +5537,7 @@
         <v>47</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="M74" s="7">
         <v>0</v>
@@ -5519,7 +5552,7 @@
         <v>47</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>321</v>
+        <v>391</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D75" s="7">
-        <v>19773</v>
+        <v>16943</v>
       </c>
       <c r="E75" s="7" t="s">
         <v>61</v>
@@ -5546,7 +5579,7 @@
         <v>36</v>
       </c>
       <c r="I75" s="7">
-        <v>18870</v>
+        <v>17592</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>61</v>
@@ -5558,10 +5591,10 @@
         <v>61</v>
       </c>
       <c r="M75" s="7">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N75" s="7">
-        <v>38643</v>
+        <v>34535</v>
       </c>
       <c r="O75" s="7" t="s">
         <v>61</v>
@@ -5575,55 +5608,53 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>3</v>
+        <v>392</v>
       </c>
       <c r="B76" s="5">
         <v>10</v>
       </c>
       <c r="C76" s="7">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D76" s="7">
-        <v>654994</v>
+        <v>852</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>388</v>
+        <v>46</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H76" s="7">
-        <v>594</v>
-      </c>
-      <c r="I76" s="7">
-        <v>482832</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" s="7"/>
       <c r="J76" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>73</v>
+        <v>395</v>
       </c>
       <c r="M76" s="7">
-        <v>1183</v>
+        <v>1</v>
       </c>
       <c r="N76" s="7">
-        <v>1137826</v>
+        <v>852</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5632,49 +5663,47 @@
         <v>9</v>
       </c>
       <c r="C77" s="7">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="D77" s="7">
-        <v>525163</v>
+        <v>0</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>394</v>
+        <v>46</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>395</v>
+        <v>47</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>396</v>
       </c>
       <c r="H77" s="7">
-        <v>520</v>
-      </c>
-      <c r="I77" s="7">
-        <v>390291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" s="7"/>
       <c r="J77" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="M77" s="7">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="N77" s="7">
-        <v>915453</v>
+        <v>0</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>401</v>
+        <v>47</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,49 +5712,47 @@
         <v>8</v>
       </c>
       <c r="C78" s="7">
-        <v>452</v>
+        <v>1</v>
       </c>
       <c r="D78" s="7">
-        <v>461641</v>
+        <v>746</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>404</v>
+        <v>46</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>147</v>
+        <v>394</v>
       </c>
       <c r="H78" s="7">
-        <v>647</v>
-      </c>
-      <c r="I78" s="7">
-        <v>432100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" s="7"/>
       <c r="J78" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="M78" s="7">
-        <v>1099</v>
+        <v>1</v>
       </c>
       <c r="N78" s="7">
-        <v>893741</v>
+        <v>746</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,49 +5761,47 @@
         <v>7</v>
       </c>
       <c r="C79" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="D79" s="7">
-        <v>115082</v>
+        <v>0</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>412</v>
+        <v>47</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="H79" s="7">
-        <v>153</v>
-      </c>
-      <c r="I79" s="7">
-        <v>105307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" s="7"/>
       <c r="J79" s="7" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="M79" s="7">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="N79" s="7">
-        <v>220389</v>
+        <v>0</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>417</v>
+        <v>46</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>418</v>
+        <v>47</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5785,49 +5810,47 @@
         <v>6</v>
       </c>
       <c r="C80" s="7">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D80" s="7">
-        <v>51836</v>
+        <v>0</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>420</v>
+        <v>46</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="H80" s="7">
-        <v>55</v>
-      </c>
-      <c r="I80" s="7">
-        <v>40078</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" s="7"/>
       <c r="J80" s="7" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>233</v>
+        <v>395</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="M80" s="7">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="N80" s="7">
-        <v>91914</v>
+        <v>0</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,49 +5859,47 @@
         <v>5</v>
       </c>
       <c r="C81" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D81" s="7">
-        <v>12852</v>
+        <v>0</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>425</v>
+        <v>46</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="H81" s="7">
-        <v>36</v>
-      </c>
-      <c r="I81" s="7">
-        <v>32692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" s="7"/>
       <c r="J81" s="7" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="M81" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="N81" s="7">
-        <v>45544</v>
+        <v>0</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>429</v>
+        <v>47</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,49 +5908,47 @@
         <v>4</v>
       </c>
       <c r="C82" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D82" s="7">
-        <v>5371</v>
+        <v>0</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>431</v>
+        <v>47</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="H82" s="7">
-        <v>10</v>
-      </c>
-      <c r="I82" s="7">
-        <v>6628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" s="7"/>
       <c r="J82" s="7" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>177</v>
+        <v>395</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="M82" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N82" s="7">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>435</v>
+        <v>46</v>
       </c>
       <c r="P82" s="7" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>99</v>
+        <v>396</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,49 +5957,47 @@
         <v>3</v>
       </c>
       <c r="C83" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D83" s="7">
-        <v>3578</v>
+        <v>0</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>436</v>
+        <v>47</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="H83" s="7">
-        <v>9</v>
-      </c>
-      <c r="I83" s="7">
-        <v>6030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" s="7"/>
       <c r="J83" s="7" t="s">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>115</v>
+        <v>395</v>
       </c>
       <c r="M83" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N83" s="7">
-        <v>9609</v>
+        <v>0</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="P83" s="7" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6001,37 +6018,35 @@
         <v>47</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>431</v>
+        <v>396</v>
       </c>
       <c r="H84" s="7">
-        <v>8</v>
-      </c>
-      <c r="I84" s="7">
-        <v>5386</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" s="7"/>
       <c r="J84" s="7" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>432</v>
+        <v>395</v>
       </c>
       <c r="M84" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N84" s="7">
-        <v>5386</v>
+        <v>0</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="P84" s="7" t="s">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>122</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,49 +6055,47 @@
         <v>1</v>
       </c>
       <c r="C85" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D85" s="7">
-        <v>2644</v>
+        <v>0</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>440</v>
+        <v>47</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>181</v>
+        <v>396</v>
       </c>
       <c r="H85" s="7">
-        <v>3</v>
-      </c>
-      <c r="I85" s="7">
-        <v>2149</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" s="7"/>
       <c r="J85" s="7" t="s">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>102</v>
+        <v>395</v>
       </c>
       <c r="M85" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N85" s="7">
-        <v>4793</v>
+        <v>0</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>248</v>
+        <v>46</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>442</v>
+        <v>47</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>332</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6091,49 +6104,47 @@
         <v>0</v>
       </c>
       <c r="C86" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D86" s="7">
-        <v>4917</v>
+        <v>0</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>179</v>
+        <v>396</v>
       </c>
       <c r="H86" s="7">
-        <v>1</v>
-      </c>
-      <c r="I86" s="7">
-        <v>804</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" s="7"/>
       <c r="J86" s="7" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>120</v>
+        <v>395</v>
       </c>
       <c r="M86" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N86" s="7">
-        <v>5721</v>
+        <v>0</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>442</v>
+        <v>47</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>110</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6142,10 +6153,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="7">
-        <v>1677</v>
+        <v>2</v>
       </c>
       <c r="D87" s="7">
-        <v>1838078</v>
+        <v>1598</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>61</v>
@@ -6157,25 +6168,23 @@
         <v>61</v>
       </c>
       <c r="H87" s="7">
-        <v>2036</v>
-      </c>
-      <c r="I87" s="7">
-        <v>1504298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" s="7"/>
       <c r="J87" s="7" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="M87" s="7">
-        <v>3713</v>
+        <v>2</v>
       </c>
       <c r="N87" s="7">
-        <v>3342376</v>
+        <v>1598</v>
       </c>
       <c r="O87" s="7" t="s">
         <v>61</v>
@@ -6188,17 +6197,632 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5">
+        <v>10</v>
+      </c>
+      <c r="C88" s="7">
+        <v>589</v>
+      </c>
+      <c r="D88" s="7">
+        <v>617434</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H88" s="7">
+        <v>594</v>
+      </c>
+      <c r="I88" s="7">
+        <v>461122</v>
+      </c>
+      <c r="J88" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K88" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L88" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M88" s="7">
+        <v>1183</v>
+      </c>
+      <c r="N88" s="7">
+        <v>1078556</v>
+      </c>
+      <c r="O88" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q88" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="5">
+        <v>9</v>
+      </c>
+      <c r="C89" s="7">
+        <v>444</v>
+      </c>
+      <c r="D89" s="7">
+        <v>707585</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H89" s="7">
+        <v>520</v>
+      </c>
+      <c r="I89" s="7">
+        <v>416076</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L89" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="M89" s="7">
+        <v>964</v>
+      </c>
+      <c r="N89" s="7">
+        <v>1123662</v>
+      </c>
+      <c r="O89" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q89" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="5">
+        <v>8</v>
+      </c>
+      <c r="C90" s="7">
+        <v>452</v>
+      </c>
+      <c r="D90" s="7">
+        <v>455001</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H90" s="7">
+        <v>647</v>
+      </c>
+      <c r="I90" s="7">
+        <v>405010</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L90" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M90" s="7">
+        <v>1099</v>
+      </c>
+      <c r="N90" s="7">
+        <v>860011</v>
+      </c>
+      <c r="O90" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q90" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5">
+        <v>7</v>
+      </c>
+      <c r="C91" s="7">
+        <v>112</v>
+      </c>
+      <c r="D91" s="7">
+        <v>110058</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H91" s="7">
+        <v>153</v>
+      </c>
+      <c r="I91" s="7">
+        <v>97655</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K91" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L91" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="M91" s="7">
+        <v>265</v>
+      </c>
+      <c r="N91" s="7">
+        <v>207713</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P91" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q91" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="5">
+        <v>6</v>
+      </c>
+      <c r="C92" s="7">
+        <v>51</v>
+      </c>
+      <c r="D92" s="7">
+        <v>48927</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="H92" s="7">
+        <v>55</v>
+      </c>
+      <c r="I92" s="7">
+        <v>35983</v>
+      </c>
+      <c r="J92" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K92" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L92" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="M92" s="7">
+        <v>106</v>
+      </c>
+      <c r="N92" s="7">
+        <v>84909</v>
+      </c>
+      <c r="O92" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P92" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q92" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="5">
+        <v>5</v>
+      </c>
+      <c r="C93" s="7">
+        <v>12</v>
+      </c>
+      <c r="D93" s="7">
+        <v>12205</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H93" s="7">
+        <v>36</v>
+      </c>
+      <c r="I93" s="7">
+        <v>28234</v>
+      </c>
+      <c r="J93" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K93" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L93" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="M93" s="7">
+        <v>48</v>
+      </c>
+      <c r="N93" s="7">
+        <v>40439</v>
+      </c>
+      <c r="O93" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P93" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q93" s="7" t="s">
         <v>443</v>
       </c>
     </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="5">
+        <v>4</v>
+      </c>
+      <c r="C94" s="7">
+        <v>5</v>
+      </c>
+      <c r="D94" s="7">
+        <v>4997</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H94" s="7">
+        <v>10</v>
+      </c>
+      <c r="I94" s="7">
+        <v>6056</v>
+      </c>
+      <c r="J94" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L94" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M94" s="7">
+        <v>15</v>
+      </c>
+      <c r="N94" s="7">
+        <v>11053</v>
+      </c>
+      <c r="O94" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P94" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q94" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="5">
+        <v>3</v>
+      </c>
+      <c r="C95" s="7">
+        <v>5</v>
+      </c>
+      <c r="D95" s="7">
+        <v>3492</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H95" s="7">
+        <v>9</v>
+      </c>
+      <c r="I95" s="7">
+        <v>5672</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L95" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M95" s="7">
+        <v>14</v>
+      </c>
+      <c r="N95" s="7">
+        <v>9163</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P95" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q95" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="5">
+        <v>2</v>
+      </c>
+      <c r="C96" s="7">
+        <v>0</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H96" s="7">
+        <v>8</v>
+      </c>
+      <c r="I96" s="7">
+        <v>5041</v>
+      </c>
+      <c r="J96" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="K96" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L96" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="M96" s="7">
+        <v>8</v>
+      </c>
+      <c r="N96" s="7">
+        <v>5041</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P96" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q96" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="5">
+        <v>1</v>
+      </c>
+      <c r="C97" s="7">
+        <v>3</v>
+      </c>
+      <c r="D97" s="7">
+        <v>2509</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H97" s="7">
+        <v>3</v>
+      </c>
+      <c r="I97" s="7">
+        <v>2024</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K97" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M97" s="7">
+        <v>6</v>
+      </c>
+      <c r="N97" s="7">
+        <v>4532</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P97" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q97" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="5">
+        <v>0</v>
+      </c>
+      <c r="C98" s="7">
+        <v>4</v>
+      </c>
+      <c r="D98" s="7">
+        <v>4774</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H98" s="7">
+        <v>1</v>
+      </c>
+      <c r="I98" s="7">
+        <v>771</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="M98" s="7">
+        <v>5</v>
+      </c>
+      <c r="N98" s="7">
+        <v>5546</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="P98" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q98" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1677</v>
+      </c>
+      <c r="D99" s="7">
+        <v>1966982</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H99" s="7">
+        <v>2036</v>
+      </c>
+      <c r="I99" s="7">
+        <v>1463643</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M99" s="7">
+        <v>3713</v>
+      </c>
+      <c r="N99" s="7">
+        <v>3430626</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q99" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>454</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A28:A39"/>
     <mergeCell ref="A40:A51"/>
     <mergeCell ref="A52:A63"/>
     <mergeCell ref="A64:A75"/>
     <mergeCell ref="A76:A87"/>
+    <mergeCell ref="A88:A99"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
